--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -18,15 +18,67 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +101,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +178,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +213,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +395,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -21,35 +21,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解关系抽取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步了解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -97,23 +97,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,52 +455,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="28">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,26 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:15-11:30
+2:00-7:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">尝试hanlp的实体关系
+阅读《简明教程》
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanlp的实体关系python未成功调用
+《简明教程》前两章了解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,10 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,7 +196,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,99 +481,128 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="37.125" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -563,22 +615,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,26 @@
   <si>
     <t>hanlp的实体关系python未成功调用
 《简明教程》前两章了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:15-11:30
+2:30-6:00
+7:30-9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写nlp前端
+nlp前端与后端连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端重写完毕
+连接失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,9 +200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -481,7 +501,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,117 +512,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -615,6 +627,22 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,22 @@
   <si>
     <t>前端重写完毕
 连接失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:20-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlp前端与后端连接（昨天遗留问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlp前后端连接成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,6 +216,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -211,12 +233,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +517,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,109 +528,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -627,22 +667,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -97,15 +97,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8:20-11:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlp前端与后端连接（昨天遗留问题）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlp前后端连接成功</t>
+    <t>8:20-11:30
+2:10-5:30
+7:30-9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlp前端与后端连接（昨天遗留问题）
+学习《简明教程》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlp前后端连接成功
+词汇处理：正则表达式，最小编辑距离，歧义现象，排歧方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,12 +220,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,6 +231,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +521,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,133 +532,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -667,6 +655,22 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,13 +103,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nlp前后端连接成功
+词汇处理：正则表达式，最小编辑距离，歧义现象，排歧方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-11:30
+2:20-3:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>nlp前端与后端连接（昨天遗留问题）
 学习《简明教程》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nlp前后端连接成功
-词汇处理：正则表达式，最小编辑距离，歧义现象，排歧方法</t>
+    <t>学习《简明教程》
+Git的简单实用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解：有限状态转移网络
+掌握Git的基本使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,6 +239,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,12 +256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,7 +540,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,117 +551,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -655,22 +698,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -41,14 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>了解关系抽取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步了解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +51,54 @@
   <si>
     <t>8:15-11:30
 2:00-7:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanlp的实体关系python未成功调用
+《简明教程》前两章了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:15-11:30
+2:30-6:00
+7:30-9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:20-11:30
+2:10-5:30
+7:30-9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习《简明教程》
+Git的简单实用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-11:30
+2:20-3:15
+3:15-5:00 6:30-8:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步了解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -68,21 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hanlp的实体关系python未成功调用
-《简明教程》前两章了解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:15-11:30
-2:30-6:00
-7:30-9:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重写nlp前端
 nlp前端与后端连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,13 +118,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.7.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:20-11:30
-2:10-5:30
-7:30-9:30</t>
+    <t>nlp前端与后端连接（昨天遗留问题）
+学习《简明教程》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,26 +128,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.7.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:30-11:30
-2:20-3:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlp前端与后端连接（昨天遗留问题）
-学习《简明教程》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习《简明教程》
-Git的简单实用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解：有限状态转移网络
+    <t>了解：有限状态转移网络、有限状态转移的局限性、自动词法分析、自动分词、自动切词的主要方法、歧义切分字段、切分单位的某些形式、文本的自动标注、基于统计的自动标注
 掌握Git的基本使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,12 +548,12 @@
   <cols>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="37.125" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
@@ -578,57 +579,57 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
@@ -636,21 +637,21 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,25 @@
   <si>
     <t>了解：有限状态转移网络、有限状态转移的局限性、自动词法分析、自动分词、自动切词的主要方法、歧义切分字段、切分单位的某些形式、文本的自动标注、基于统计的自动标注
 掌握Git的基本使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-11:00
+2:30-5:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习《简明教程》
+python调用hanlp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句法自动处理：递归转移网络、剖析法、结构歧义
+python调用hanlp的环境为配置成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,12 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,6 +270,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +560,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,141 +571,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -699,6 +710,22 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,13 +142,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>句法自动处理：递归转移网络、剖析法、结构歧义
+python调用hanlp的环境为配置成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学习《简明教程》
 python调用hanlp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>句法自动处理：递归转移网络、剖析法、结构歧义
-python调用hanlp的环境为配置成功</t>
+    <t xml:space="preserve">2019.7.22
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30-12:00
+2:10-5:00
+6:30-8:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加例会，pyhanlp环境的配置
+成功调用pyhanlp与pyltp
+flask简单尝试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成环境配置
+并调用命名实体识别与实体关系抽取
+flask未能与前端连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +211,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -250,15 +291,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,6 +378,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,145 +679,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="34">
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -718,14 +880,8 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -352,6 +352,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,18 +383,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,199 +679,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -880,8 +856,32 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,13 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">8:30-12:00
-2:10-5:00
-6:30-8:30
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参加例会，pyhanlp环境的配置
 成功调用pyhanlp与pyltp
 flask简单尝试</t>
@@ -181,6 +174,35 @@
     <t>完成环境配置
 并调用命名实体识别与实体关系抽取
 flask未能与前端连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-12:00
+2:10-5:00
+6:30-8:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.7.23
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-12:00
+2:20-5:30
+6:30-8:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flask连接前端&amp;前端业务方法优化
+整理pyltp实体关系抽取接口&amp;调用ltp的java接方法
+学习《nndl》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flask前后端链接完成&amp;业务方法优化完成
+java调用失败（未找到方法）
+nndl第一章学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,17 +374,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,112 +731,112 @@
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -828,26 +850,44 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="38">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -861,6 +901,7 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:B6"/>
@@ -869,6 +910,15 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A9:H9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
@@ -876,12 +926,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,27 @@
     <t>flask前后端链接完成&amp;业务方法优化完成
 java调用失败（未找到方法）
 nndl第一章学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.7.24
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">完成
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学习nndl&amp;搜集相关文章更加深入了解
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-9:30-11:30
+2:30-5:30
+6:30-9:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -365,35 +386,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,22 +743,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -731,112 +773,112 @@
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -851,43 +893,91 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="54">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -901,6 +991,9 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
@@ -910,10 +1003,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -923,9 +1012,26 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,93 @@
     <t>8:30-9:30-11:30
 2:30-5:30
 6:30-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.7.25
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">命名实体识别、实体关系抽取完成
+学习线性代数
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8:50-11:30
+2:30-5:30
+7:00-9:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:50-11:30
+2:30-5:30
+7:00-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理ltp的分词、属性标记-&gt;命名实体识别与实体关系抽取
+学习模型BiLSTM-CRFs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习线性代数
+学习PyTorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.7.26
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.7.27
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-11:30
+2:30-5:30
+7:00-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学习Py|Torch并尝试小例子
+学习训练型的过程
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小例子运行失败
+对训练过程有初步了解
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +350,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -405,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -414,6 +518,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -731,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,190 +850,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -947,33 +1054,57 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
   </sheetData>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,56 @@
     <t xml:space="preserve">小例子运行失败
 对训练过程有初步了解
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.7.29
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-10:00
+10:10-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例会
+成功搭建CRF++环境，并成功运行
+熟悉CRF++工具包的运作流程，尝试封装成服务接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终使用BiLSTM+CRF实现服务接口
+安装完成，需要进一步叙述流程，下午完成
+未完成，预处理失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRF++工具的使用成功，了解参数作用与封装服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,25 +559,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,12 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,6 +590,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -850,278 +903,636 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="15"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="138">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
@@ -1138,31 +1549,19 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,15 +352,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.7.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-11:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRF++工具的使用成功，了解参数作用与封装服务</t>
+    <t>9:00-11:30
+2:10-5:30
+7:20-9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.7.30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRF++工具的使用成功，了解参数作用与封装服务
+了解CRF++的参数及原理
+学习torch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成功封装服务   难点：语料库预处理
+对CRF++进一步了解
+尝试小例子（待完成）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +903,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1192,18 +1203,20 @@
     </row>
     <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="13" t="s">
         <v>64</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,26 +352,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">2019.7.30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRF++工具的使用成功，了解参数作用与封装服务
+了解CRF++的参数及原理
+学习torch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成功封装服务   难点：语料库预处理
+对CRF++进一步了解
+尝试小例子（待完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>9:00-11:30
 2:10-5:30
 7:20-9:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2019.7.30
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRF++工具的使用成功，了解参数作用与封装服务
-了解CRF++的参数及原理
-学习torch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未成功封装服务   难点：语料库预处理
-对CRF++进一步了解
-尝试小例子（待完成）</t>
+    <t>9:00-11:30
+2:10-5:30
+7:20-9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">更换语料库
+学习pytorch 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.7.31
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">，完成地名、人名、机构名的识别
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习pytorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习一点pytorch，感觉提前了，接下来学习Bilstm-CRF与CRF的优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,7 +942,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G20" sqref="G20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1203,40 +1242,56 @@
     </row>
     <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,15 +402,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:00-11:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续学习pytorch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习一点pytorch，感觉提前了，接下来学习Bilstm-CRF与CRF的优化</t>
+    <t>学习一点pytorch，感觉提前了，接下来学习Bilstm-CRF与CRF的优化
+了解几种，但感觉实施起来挺难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">继续学习pytorch
+搜集资料了解如何做实体关系
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00-11:30
+2:20-5:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:40-11:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,11 +627,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,6 +641,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,24 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:H20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -953,22 +966,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -983,112 +996,112 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1103,112 +1116,112 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1223,380 +1236,332 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="14"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="138">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A9:H9"/>
+  <mergeCells count="154">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
@@ -1617,19 +1582,127 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,11 +419,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.8.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:40-11:30</t>
+    <t>8:40-11:30
+2:10-5:30
+7:00-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜集现有处理关系的方法与例子
+调试学习代码示例
+查找crfsuit的资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.2
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料搜集完毕，发现太过超前
+代码未调试成功（torch在python2.7上无法安装）
+决定尝试crfsuite，进一步了解CRF算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.3
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30-11:30
+2:20-5:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学习crfsuite，进一步了解CRF算法
+使用crfsuite改写命名实体识别服务
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">了解crfsuite流程
+服务改写未完成
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">服务完成
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.5
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30-11:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用crfsuite写命名实体抽取的服务
+测试结果、特征、参数了解或优化
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +1014,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:F21"/>
+      <selection activeCell="E24" sqref="E24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1309,26 +1368,38 @@
     </row>
     <row r="21" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1344,13 +1415,21 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,11 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">服务完成
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2019.8.5
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,8 +475,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">使用crfsuite写命名实体抽取的服务
+    <t>服务完成
+测试结果成功显示
+了解前馈神经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用crfsuite写命名实体抽取的服务
 测试结果、特征、参数了解或优化
+学习《nndl》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.6
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00-11:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">继续尝试优化CRFsuite
+继续学习《nndl》
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">感觉挺难的——后期优化
+了解RNN与循环神经网络
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.7
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.8
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-11:30
+2:20-5:30
+6:30-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-11:30
+2:30-5:30
+6:30-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">继续学习CRF原理
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">例会
+了解CRF的数学模型
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基础较差，学习CRF原理估计需要几天
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学习HMM的原理
+CRF的基本定义与计算
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.9
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-11:30
+2:20-5:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">算法理解存在问题，有待进一步理解
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为理解难度问题，先学习pytorch上样例，再进一步理解
+学习BiLSTM+CRF算法（尝试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.10
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00-5:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">继续学习CRF+BiLSTM算法
+pytorch实现
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pytorch官网BiLSTM+CRF跑通
+需要进一步理解
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.12
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00-11:30
+2:30-5:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">文档部分完成
+样例需要继续分析
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.13
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8:34-11:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">编写文档
+进一步学习BiLSTM+CRF样例
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">继续编写文档
+总结CRF
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,11 +834,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,24 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,6 +860,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1025,22 +1173,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1055,112 +1203,112 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1175,112 +1323,112 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1295,112 +1443,112 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1415,72 +1563,112 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
+      <c r="A26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
+      <c r="A28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
+      <c r="A29" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1495,64 +1683,78 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
+      <c r="A31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
+      <c r="A32" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -1567,80 +1769,188 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:H9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
@@ -1661,127 +1971,19 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,11 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">8:34-11:30
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">编写文档
 进一步学习BiLSTM+CRF样例
 </t>
@@ -630,6 +625,33 @@
   <si>
     <t xml:space="preserve">继续编写文档
 总结CRF
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">文档部分完成
+熟悉流程，但学习和预测数学推导未理解
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:34-11:30
+2:30-5:30
+7:00-9:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">更换NER_pytorch语料库
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.14
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00-11:30
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -834,11 +856,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,6 +870,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,24 +900,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1173,22 +1195,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1203,112 +1225,112 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1323,112 +1345,112 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1443,112 +1465,112 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1563,112 +1585,112 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1683,78 +1705,86 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
+      <c r="A33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -1769,67 +1799,201 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="14"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="14"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
@@ -1850,140 +2014,6 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,23 +635,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">2019.8.14
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">更换NER_pytorch语料库
+更换样例的语料库
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">找到医疗语料库
+更换语料库出现错误
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>8:34-11:30
 2:30-5:30
 7:00-9:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">更换NER_pytorch语料库
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2019.8.14
+    <t>9:00-11:30
+2:30-5:30
+7:00-9:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.15
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">9:00-11:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">详细了解样例（方法的作用）
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -856,11 +879,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -870,24 +893,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -900,6 +905,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:H33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1195,22 +1218,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1225,112 +1248,112 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1345,112 +1368,112 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1465,112 +1488,112 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1585,112 +1608,112 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2" t="s">
+      <c r="F29" s="14"/>
+      <c r="G29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1705,86 +1728,94 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
+      <c r="A34" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -1799,80 +1830,188 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:H9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
@@ -1893,127 +2032,19 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,12 +669,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">2019.8.16
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-11:30
+2:30-5:30
+7:00-9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">详细了解样例（方法的作用）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未完成
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">9:00-11:30
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">详细了解样例（方法的作用）
+    <t xml:space="preserve">看GitHub上另一个案例
+尝试训练自己的模型
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,11 +901,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -893,6 +915,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,24 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,7 +1229,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:H34"/>
+      <selection activeCell="G35" sqref="G35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1218,22 +1240,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1248,112 +1270,112 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1368,112 +1390,112 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1488,112 +1510,112 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1608,112 +1630,112 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1728,94 +1750,102 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -1830,67 +1860,201 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="14"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="14"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
@@ -1911,140 +2075,6 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>实际完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,14 +690,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">9:00-11:30
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">看GitHub上另一个案例
 尝试训练自己的模型
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">训练少量数据完成
+但速度比较慢
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.17
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30-11:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用GPU加速
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">安装驱动失败
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.19
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30-11:30
+3:30-5:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">例会
+计算crfsuite训练的prf指标
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获得prf指标
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.8.20
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8:30-11:30
+2:30-5:30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理数据与prf指标
+区分HMM、MEMM、CRF和BiLSTM+CRF
+尝试使用HMM实现NER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,11 +961,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -915,24 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -945,6 +987,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1240,22 +1300,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1270,112 +1330,112 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1390,112 +1450,112 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1510,112 +1570,112 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1630,112 +1690,112 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2" t="s">
+      <c r="F29" s="14"/>
+      <c r="G29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1750,102 +1810,112 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
+      <c r="A36" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -1860,80 +1930,202 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
+      <c r="A38" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:H9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
@@ -1954,127 +2146,19 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -326,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第六周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2019.7.29
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,6 +754,10 @@
     <t>整理数据与prf指标
 区分HMM、MEMM、CRF和BiLSTM+CRF
 尝试使用HMM实现NER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,11 +961,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -975,6 +975,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -987,24 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39:H39"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1300,22 +1300,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1330,112 +1330,112 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1450,112 +1450,112 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1570,112 +1570,112 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="13" t="s">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13" t="s">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13" t="s">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13" t="s">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1690,112 +1690,112 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13" t="s">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13" t="s">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13" t="s">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="13" t="s">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1810,116 +1810,116 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13" t="s">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="13" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="13" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13" t="s">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36" s="14"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1930,81 +1930,215 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13" t="s">
+      <c r="F38" s="3"/>
+      <c r="G38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13" t="s">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="14"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
@@ -2025,140 +2159,6 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
